--- a/test/functional/xlsx_files/image26.xlsx
+++ b/test/functional/xlsx_files/image26.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16095" windowHeight="6855"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
